--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
@@ -1430,6 +1430,21 @@
           <t>introspect_done</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2025,7 +2040,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.kain_soul_choice,1</t>
+          <t>chitsii.arena.player.kain_soul_choice,0</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2428,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.kain_soul_choice,2</t>
+          <t>chitsii.arena.player.kain_soul_choice,1</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+          <t>for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create("money")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1428,21 +1428,6 @@
       <c r="B64" t="inlineStr">
         <is>
           <t>introspect_done</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>pc</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1428,6 +1428,21 @@
       <c r="B64" t="inlineStr">
         <is>
           <t>introspect_done</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,38 +585,68 @@
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>zek_1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>……あぁ、なんと美しい。</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>……あぁ、なんと美しい。</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>zek_2</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>数千回の敗北と、最期の瞬間の安らぎが凝固した、混じり気なしの『純粋な魂』だ。</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>数千回の敗北と、最期の瞬間の安らぎが凝固した、混じり気なしの『純粋な魂』だ。</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>（彼は細長い指を伸ばし、魂の欠片を指し示す。）</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>（彼は細長い指を伸ばし、魂の欠片を指し示す。）</t>
         </is>
       </c>
     </row>
@@ -628,17 +658,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>zek_1</t>
+          <t>zek_3</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>……あぁ、なんと美しい。</t>
+          <t>バルガスがそれを望んでいるのは分かっています。……ですが、闘士殿。あのおっさんにこれを返して、一体何になるのですか？</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>……あぁ、なんと美しい。</t>
+          <t>バルガスがそれを望んでいるのは分かっています。……ですが、闘士殿。あのおっさんにこれを返して、一体何になるのですか？</t>
         </is>
       </c>
     </row>
@@ -650,171 +680,141 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>zek_2</t>
+          <t>zek_4</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>数千回の敗北と、最期の瞬間の安らぎが凝固した、混じり気なしの『純粋な魂』だ。</t>
+          <t>死者に安らぎを、生者に感傷を。……そんなもの、一文の得にもなりゃしない。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>数千回の敗北と、最期の瞬間の安らぎが凝固した、混じり気なしの『純粋な魂』だ。</t>
+          <t>死者に安らぎを、生者に感傷を。……そんなもの、一文の得にもなりゃしない。</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>react1_what</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>c1_what</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>（彼は細長い指を伸ばし、魂の欠片を指し示す。）</t>
+          <t>……何が言いたい</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>（彼は細長い指を伸ばし、魂の欠片を指し示す。）</t>
+          <t>……何が言いたい</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>react1_friend</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>c1_friend</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>友情に価値がないと？</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>友情に価値がないと？</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>react1_what</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>zek_3</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>バルガスがそれを望んでいるのは分かっています。……ですが、闘士殿。あのおっさんにこれを返して、一体何になるのですか？</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>バルガスがそれを望んでいるのは分かっています。……ですが、闘士殿。あのおっさんにこれを返して、一体何になるのですか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>zek_4</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>死者に安らぎを、生者に感傷を。……そんなもの、一文の得にもなりゃしない。</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>死者に安らぎを、生者に感傷を。……そんなもの、一文の得にもなりゃしない。</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>react1_what</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>c1_what</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>……何が言いたい</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>……何が言いたい</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>react1_friend</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>c1_friend</t>
+          <t>zek_r1</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>友情に価値がないと？</t>
+          <t>おや、警戒心がおありで。では、単刀直入に申し上げましょう。</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>友情に価値がないと？</t>
+          <t>おや、警戒心がおありで。では、単刀直入に申し上げましょう。</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
+          <t>scene2_cruel_choice</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>react1_what</t>
+          <t>react1_friend</t>
         </is>
       </c>
     </row>
@@ -826,17 +826,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>zek_r1</t>
+          <t>zek_r2</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>おや、警戒心がおありで。では、単刀直入に申し上げましょう。</t>
+          <t>価値がない、とは言いません。ただ、『足りない』と言っているのです。</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>おや、警戒心がおありで。では、単刀直入に申し上げましょう。</t>
+          <t>価値がない、とは言いません。ただ、『足りない』と言っているのです。</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>react1_friend</t>
+          <t>react1_silent</t>
         </is>
       </c>
     </row>
@@ -862,17 +862,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>zek_r2</t>
+          <t>zek_r3</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>価値がない、とは言いません。ただ、『足りない』と言っているのです。</t>
+          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>価値がない、とは言いません。ただ、『足りない』と言っているのです。</t>
+          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
         </is>
       </c>
     </row>
@@ -886,77 +886,107 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>scene2_cruel_choice</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="F32" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>（ゼクはさらに一歩踏み込み、フードの下から歪んだ笑みを覗かせる。）</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>（ゼクはさらに一歩踏み込み、フードの下から歪んだ笑みを覗かせる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>zek_r3</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>scene2_cruel_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>scene2_cruel_choice</t>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>zek_5</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>それよりも、私にその欠片を預けてはいただけませんか？これほどの素材があれば、私はあなたの武具に『神話』の一片を刻むことができる。</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>それよりも、私にその欠片を預けてはいただけませんか？これほどの素材があれば、私はあなたの武具に『神話』の一片を刻むことができる。</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>zek_6</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>選ぶのはあなただ。バルガスに返し、友情と名誉という名の、腹の足しにもならない温もりを噛み締めるか。</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>選ぶのはあなただ。バルガスに返し、友情と名誉という名の、腹の足しにもならない温もりを噛み締めるか。</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>zek_7</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>（ゼクはさらに一歩踏み込み、フードの下から歪んだ笑みを覗かせる。）</t>
+          <t>それとも、私に売り払い、この先の地獄を生き抜くための『絶対的な暴力』を手に入れるか。</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>（ゼクはさらに一歩踏み込み、フードの下から歪んだ笑みを覗かせる。）</t>
+          <t>それとも、私に売り払い、この先の地獄を生き抜くための『絶対的な暴力』を手に入れるか。</t>
         </is>
       </c>
     </row>
@@ -968,17 +998,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>zek_5</t>
+          <t>zek_8</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>それよりも、私にその欠片を預けてはいただけませんか？これほどの素材があれば、私はあなたの武具に『神話』の一片を刻むことができる。</t>
+          <t>バルガスに返せば、彼は救われるでしょう。ですが、あなたは弱いままだ。私に売れば、あなたは英雄の力を食らって強くなる。</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>それよりも、私にその欠片を預けてはいただけませんか？これほどの素材があれば、私はあなたの武具に『神話』の一片を刻むことができる。</t>
+          <t>バルガスに返せば、彼は救われるでしょう。ですが、あなたは弱いままだ。私に売れば、あなたは英雄の力を食らって強くなる。</t>
         </is>
       </c>
     </row>
@@ -990,171 +1020,141 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>zek_6</t>
+          <t>zek_9</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>選ぶのはあなただ。バルガスに返し、友情と名誉という名の、腹の足しにもならない温もりを噛み締めるか。</t>
+          <t>……どちらがこのアリーナの『正解』か、賢明なあなたならお分かりでしょう？</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>選ぶのはあなただ。バルガスに返し、友情と名誉という名の、腹の足しにもならない温もりを噛み締めるか。</t>
+          <t>……どちらがこのアリーナの『正解』か、賢明なあなたならお分かりでしょう？</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>react2_price</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>c2_price</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>代償は何だ？</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>代償は何だ？</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>react2_balgas</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>c2_balgas</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>バルガスが知ったら……</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>バルガスが知ったら……</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>react2_stare</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>c2_stare</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>（無言で魂の欠片を見つめる）</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>（無言で魂の欠片を見つめる）</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>react2_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>zek_7</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>それとも、私に売り払い、この先の地獄を生き抜くための『絶対的な暴力』を手に入れるか。</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>それとも、私に売り払い、この先の地獄を生き抜くための『絶対的な暴力』を手に入れるか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>zek_8</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>バルガスに返せば、彼は救われるでしょう。ですが、あなたは弱いままだ。私に売れば、あなたは英雄の力を食らって強くなる。</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>バルガスに返せば、彼は救われるでしょう。ですが、あなたは弱いままだ。私に売れば、あなたは英雄の力を食らって強くなる。</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>zek_9</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>……どちらがこのアリーナの『正解』か、賢明なあなたならお分かりでしょう？</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>……どちらがこのアリーナの『正解』か、賢明なあなたならお分かりでしょう？</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>react2_price</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>c2_price</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>代償は何だ？</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>代償は何だ？</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>react2_balgas</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>c2_balgas</t>
+          <t>zek_r4</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>バルガスが知ったら……</t>
+          <t>代償は……あなたの『良心』を、少しばかりいただくだけです。ああ、それと友情も。</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>バルガスが知ったら……</t>
+          <t>代償は……あなたの『良心』を、少しばかりいただくだけです。ああ、それと友情も。</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>react2_stare</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>c2_stare</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>（無言で魂の欠片を見つめる）</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>（無言で魂の欠片を見つめる）</t>
+          <t>scene3_decision</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>react2_price</t>
+          <t>react2_balgas</t>
         </is>
       </c>
     </row>
@@ -1166,17 +1166,17 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>zek_r4</t>
+          <t>zek_r5</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>代償は……あなたの『良心』を、少しばかりいただくだけです。ああ、それと友情も。</t>
+          <t>ふふ、知られなければいいのですよ。それとも、正直に告白なさいますか？</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>代償は……あなたの『良心』を、少しばかりいただくだけです。ああ、それと友情も。</t>
+          <t>ふふ、知られなければいいのですよ。それとも、正直に告白なさいますか？</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>react2_balgas</t>
+          <t>react2_stare</t>
         </is>
       </c>
     </row>
@@ -1202,17 +1202,17 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>zek_r5</t>
+          <t>zek_r6</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>ふふ、知られなければいいのですよ。それとも、正直に告白なさいますか？</t>
+          <t>……悩んでおられる。それが正常です。人間らしいですね。</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>ふふ、知られなければいいのですよ。それとも、正直に告白なさいますか？</t>
+          <t>……悩んでおられる。それが正常です。人間らしいですね。</t>
         </is>
       </c>
     </row>
@@ -1226,120 +1226,150 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>react2_stare</t>
+          <t>scene3_decision</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>zek_r6</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>……悩んでおられる。それが正常です。人間らしいですね。</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>……悩んでおられる。それが正常です。人間らしいですね。</t>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Heartbeat");             var data = SoundManager.current.GetData("BGM/Ominous_Heartbeat");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Heartbeat");             }</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>scene3_decision</t>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>（ゼクはあなたの返答を待つ。その目は、あなたの決断を愉しむように細められた。）</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>（ゼクはあなたの返答を待つ。その目は、あなたの決断を愉しむように細められた。）</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>scene3_decision</t>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>（プレイヤーの脳裏に、自分の選んだ「動機」が蘇る。）</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>（プレイヤーの脳裏に、自分の選んだ「動機」が蘇る。）</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Heartbeat");             var data = SoundManager.current.GetData("BGM/Ominous_Heartbeat");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Heartbeat");             }</t>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>introspection</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>narr_6</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>（ゼクはあなたの返答を待つ。その目は、あなたの決断を愉しむように細められた。）</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>（ゼクはあなたの返答を待つ。その目は、あなたの決断を愉しむように細められた。）</t>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>introspection</t>
         </is>
       </c>
     </row>
     <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>introspect_greed</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>pc</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>（プレイヤーの脳裏に、自分の選んだ「動機」が蘇る。）</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>（プレイヤーの脳裏に、自分の選んだ「動機」が蘇る。）</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>introspection</t>
+          <t>introspect_battle</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==1)</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>introspection</t>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>introspect_void</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==2)</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>introspect_greed</t>
+          <t>introspect_pride</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1349,7 +1379,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
+          <t>if_flag(chitsii.arena.player.motivation, ==3)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -1361,117 +1391,87 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
+          <t>introspect_done</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>introspect_greed</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>intro_greed</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>（……ゼクの言う通り、これを売れば圧倒的な力が手に入る。金も名声も、その先にある。）</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>（……ゼクの言う通り、これを売れば圧倒的な力が手に入る。金も名声も、その先にある。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>intro_greed2</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>（だが……バルガスの、あの目を裏切れるのか？ 俺が本当に欲しいのは、力か？ それとも……）</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>（だが……バルガスの、あの目を裏切れるのか？ 俺が本当に欲しいのは、力か？ それとも……）</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>introspect_done</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>introspect_battle</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==1)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>introspect_void</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==2)</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>introspect_pride</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==3)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>introspect_greed</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>intro_greed</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>（……ゼクの言う通り、これを売れば圧倒的な力が手に入る。金も名声も、その先にある。）</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>（……ゼクの言う通り、これを売れば圧倒的な力が手に入る。金も名声も、その先にある。）</t>
         </is>
       </c>
     </row>
@@ -1483,53 +1483,53 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>intro_greed2</t>
+          <t>intro_battle</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>（だが……バルガスの、あの目を裏切れるのか？ 俺が本当に欲しいのは、力か？ それとも……）</t>
+          <t>（力が欲しい。もっと強い敵と戦いたい。それは今も変わらない。）</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>（だが……バルガスの、あの目を裏切れるのか？ 俺が本当に欲しいのは、力か？ それとも……）</t>
+          <t>（力が欲しい。もっと強い敵と戦いたい。それは今も変わらない。）</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>intro_battle2</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>（……だが、友を売って得た力で勝っても、それは本当の『勝利』なのか？ バルガスなら、何と言う？）</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>（……だが、友を売って得た力で勝っても、それは本当の『勝利』なのか？ バルガスなら、何と言う？）</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
         <is>
           <t>introspect_done</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>introspect_battle</t>
-        </is>
-      </c>
-    </row>
     <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>intro_battle</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>（力が欲しい。もっと強い敵と戦いたい。それは今も変わらない。）</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>（力が欲しい。もっと強い敵と戦いたい。それは今も変わらない。）</t>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>introspect_void</t>
         </is>
       </c>
     </row>
@@ -1541,53 +1541,53 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>intro_battle2</t>
+          <t>intro_void</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>（……だが、友を売って得た力で勝っても、それは本当の『勝利』なのか？ バルガスなら、何と言う？）</t>
+          <t>（どうせ全ては無意味だ。友情も、裏切りも、どちらを選んでも結果は同じ……そう思っていた。）</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>（……だが、友を売って得た力で勝っても、それは本当の『勝利』なのか？ バルガスなら、何と言う？）</t>
+          <t>（どうせ全ては無意味だ。友情も、裏切りも、どちらを選んでも結果は同じ……そう思っていた。）</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>intro_void2</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>（だが、バルガスは俺に『意味』を教えてくれた。……それを、こんな形で終わらせていいのか？）</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>（だが、バルガスは俺に『意味』を教えてくれた。……それを、こんな形で終わらせていいのか？）</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
         <is>
           <t>introspect_done</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>introspect_void</t>
-        </is>
-      </c>
-    </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>intro_void</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>（どうせ全ては無意味だ。友情も、裏切りも、どちらを選んでも結果は同じ……そう思っていた。）</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>（どうせ全ては無意味だ。友情も、裏切りも、どちらを選んでも結果は同じ……そう思っていた。）</t>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>introspect_pride</t>
         </is>
       </c>
     </row>
@@ -1599,268 +1599,298 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>intro_void2</t>
+          <t>intro_pride</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>（だが、バルガスは俺に『意味』を教えてくれた。……それを、こんな形で終わらせていいのか？）</t>
+          <t>（俺はこのアリーナを支配すると言った。ならば、ゼクの誘惑に屈するなど言語道断だ。）</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>（だが、バルガスは俺に『意味』を教えてくれた。……それを、こんな形で終わらせていいのか？）</t>
+          <t>（俺はこのアリーナを支配すると言った。ならば、ゼクの誘惑に屈するなど言語道断だ。）</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="inlineStr">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>intro_pride2</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>（……いや、待て。本当にそれだけか？ バルガスへの……あれは、感謝か？ それとも……）</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>（……いや、待て。本当にそれだけか？ バルガスへの……あれは、感謝か？ それとも……）</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
         <is>
           <t>introspect_done</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>introspect_pride</t>
-        </is>
-      </c>
-    </row>
     <row r="78">
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>intro_pride</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>（俺はこのアリーナを支配すると言った。ならば、ゼクの誘惑に屈するなど言語道断だ。）</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>（俺はこのアリーナを支配すると言った。ならば、ゼクの誘惑に屈するなど言語道断だ。）</t>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>introspect_done</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>intro_pride2</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>（……いや、待て。本当にそれだけか？ バルガスへの……あれは、感謝か？ それとも……）</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>（……いや、待て。本当にそれだけか？ バルガスへの……あれは、感謝か？ それとも……）</t>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>refuse</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>c_refuse</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>断る。バルガスに返す</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>断る。バルガスに返す</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>final_choice</t>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>c_sell</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>……分かった。売ろう</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>……分かった。売ろう</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>final_choice</t>
+          <t>refuse</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>refuse</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>c_refuse</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>断る。バルガスに返す</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>断る。バルガスに返す</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>c_sell</t>
+          <t>zek_ref1</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>……分かった。売ろう</t>
+          <t>……残念です。ですが、無理強いはいたしません。あなたが『感傷』を選ばれるというのなら、それもまた一興。</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>……分かった。売ろう</t>
+          <t>……残念です。ですが、無理強いはいたしません。あなたが『感傷』を選ばれるというのなら、それもまた一興。</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>refuse</t>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>zek_ref2</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>……いつか、その選択を後悔する日が来るかもしれませんが。その時はまた、お声掛けください。私は常に、影の中におりますから。</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>……いつか、その選択を後悔する日が来るかもしれませんが。その時はまた、お声掛けください。私は常に、影の中におりますから。</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>narr_ref</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>（ゼクは影の中へと消えていく。）</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>（ゼクは影の中へと消えていく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>refuse_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>refuse_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>zek_ref1</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>……残念です。ですが、無理強いはいたしません。あなたが『感傷』を選ばれるというのなら、それもまた一興。</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>……残念です。ですが、無理強いはいたしません。あなたが『感傷』を選ばれるというのなら、それもまた一興。</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>zek_ref2</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>……いつか、その選択を後悔する日が来るかもしれませんが。その時はまた、お声掛けください。私は常に、影の中におりますから。</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>……いつか、その選択を後悔する日が来るかもしれませんが。その時はまた、お声掛けください。私は常に、影の中におりますから。</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>narr_ref</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>refuse_balgas</t>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>narr_ref2</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>（あなたはロビーに戻り、バルガスにカインの魂の欠片を渡す。）</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>（あなたはロビーに戻り、バルガスにカインの魂の欠片を渡す。）</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>refuse_balgas</t>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>balgas_ref1</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>……あぁ。これでようやく、あいつもこの錆びた檻から出られる。</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>……あぁ。これでようやく、あいつもこの錆びた檻から出られる。</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>narr_ref3</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>（彼は震える手で魂の欠片を受け取る。その目には涙。）</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>（彼は震える手で魂の欠片を受け取る。その目には涙。）</t>
         </is>
       </c>
     </row>
@@ -1872,463 +1902,468 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>narr_ref2</t>
+          <t>narr_ref4</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>（あなたはロビーに戻り、バルガスにカインの魂の欠片を渡す。）</t>
+          <t>（彼は魂の欠片を兜の中にそっと収める。）</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>（あなたはロビーに戻り、バルガスにカインの魂の欠片を渡す。）</t>
+          <t>（彼は魂の欠片を兜の中にそっと収める。）</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>balgas_ref2</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>……ありがよ。お前をただの『鉄屑』呼ばわりしたのは取り消してやる。</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>……ありがよ。お前をただの『鉄屑』呼ばわりしたのは取り消してやる。</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>balgas_ref3</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>お前は……カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>お前は……カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="D97" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>chitsii.arena.player.kain_soul_choice,0</t>
         </is>
       </c>
     </row>
     <row r="98">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.balgas, +30)</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>balgas_ref1</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>……あぁ。これでようやく、あいつもこの錆びた檻から出られる。</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>……あぁ。これでようやく、あいつもこの錆びた檻から出られる。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>narr_ref3</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>（彼は震える手で魂の欠片を受け取る。その目には涙。）</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>（彼は震える手で魂の欠片を受け取る。その目には涙。）</t>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>scene4_lily</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>narr_ref4</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>（彼は魂の欠片を兜の中にそっと収める。）</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>（彼は魂の欠片を兜の中にそっと収める。）</t>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>sell</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="F101" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>balgas_ref2</t>
+          <t>zek_sell1</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>……ありがよ。お前をただの『鉄屑』呼ばわりしたのは取り消してやる。</t>
+          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>……ありがよ。お前をただの『鉄屑』呼ばわりしたのは取り消してやる。</t>
+          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="F102" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>balgas_ref3</t>
+          <t>zek_sell2</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>お前は……カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
+          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>お前は……カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
+          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.kain_soul_choice,0</t>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>narr_sell1</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>（彼は懐から何かを取り出す。）</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>（彼は懐から何かを取り出す。）</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.balgas, +30)</t>
-        </is>
-      </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>zek_sell3</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>scene4_lily</t>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>sell</t>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>zek_sell4</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="F107" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>zek_sell1</t>
+          <t>narr_sell2</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
+          <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
+          <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>zek_sell2</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create("money")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>narr_sell1</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>（彼は懐から何かを取り出す。）</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>（彼は懐から何かを取り出す。）</t>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>sell_balgas</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>zek_sell3</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>sell_balgas</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="D111" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="F112" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>zek_sell4</t>
+          <t>narr_sell3</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
+          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
+          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="F113" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>narr_sell2</t>
+          <t>balgas_sell1</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
+          <t>……おい。カインの魂の欠片は見つかったか？</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
+          <t>……おい。カインの魂の欠片は見つかったか？</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create("money")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>narr_sell4</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>（あなたは首を横に振る。）</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>（あなたは首を横に振る。）</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>sell_balgas</t>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>balgas_sell2</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>……そうか。見つからなかったか。</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>……そうか。見つからなかったか。</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>sell_balgas</t>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>narr_sell5</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>balgas_sell3</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>narr_sell3</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.kain_soul_choice,1</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="D119" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>invoke*</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>mod_flag(chitsii.arena.rel.zek, +20)</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>scene4_lily</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>scene4_lily</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>balgas_sell1</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>……おい。カインの魂の欠片は見つかったか？</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>……おい。カインの魂の欠片は見つかったか？</t>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
@@ -2340,320 +2375,141 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>narr_sell4</t>
+          <t>narr_lily1</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>（あなたは首を横に振る。）</t>
+          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>（あなたは首を横に振る。）</t>
+          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="F124" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>balgas_sell2</t>
+          <t>lily_1</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>……そうか。見つからなかったか。</t>
+          <t>……ふふ、面白いこと。</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>……そうか。見つからなかったか。</t>
+          <t>……ふふ、面白いこと。</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="F125" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>narr_sell5</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
+          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
+          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="F126" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>balgas_sell3</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
+          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
+          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.kain_soul_choice,1</t>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="D128" t="inlineStr">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="D130" t="inlineStr">
         <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.zek, +20)</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>scene4_lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>scene4_lily</t>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>complete_quest(06_2_zek_steal_soulgem)</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="D131" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>narr_lily1</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>……ふふ、面白いこと。</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>……ふふ、面白いこと。</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>complete_quest(06_2_zek_steal_soulgem)</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="D143" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,90 +1337,70 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>switch_flag(chitsii.arena.player.motivation, introspect_greed, introspect_battle, introspect_void, introspect_pride, introspect_done)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>introspect_greed</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>introspect_battle</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==1)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>introspect_void</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==2)</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>intro_greed</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>（……ゼクの言う通り、これを売れば圧倒的な力が手に入る。金も名声も、その先にある。）</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>（……ゼクの言う通り、これを売れば圧倒的な力が手に入る。金も名声も、その先にある。）</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>introspect_pride</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==3)</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>pc</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>intro_greed2</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>（だが……バルガスの、あの目を裏切れるのか？ 俺が本当に欲しいのは、力か？ それとも……）</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>（だが……バルガスの、あの目を裏切れるのか？ 俺が本当に欲しいのは、力か？ それとも……）</t>
         </is>
       </c>
     </row>
@@ -1430,26 +1410,11 @@
           <t>introspect_done</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>if_flag(chitsii.arena.player.motivation, ==0)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>introspect_greed</t>
+          <t>introspect_battle</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1426,17 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>intro_greed</t>
+          <t>intro_battle</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>（……ゼクの言う通り、これを売れば圧倒的な力が手に入る。金も名声も、その先にある。）</t>
+          <t>（力が欲しい。もっと強い敵と戦いたい。それは今も変わらない。）</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>（……ゼクの言う通り、これを売れば圧倒的な力が手に入る。金も名声も、その先にある。）</t>
+          <t>（力が欲しい。もっと強い敵と戦いたい。それは今も変わらない。）</t>
         </is>
       </c>
     </row>
@@ -1483,17 +1448,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>intro_greed2</t>
+          <t>intro_battle2</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>（だが……バルガスの、あの目を裏切れるのか？ 俺が本当に欲しいのは、力か？ それとも……）</t>
+          <t>（……だが、友を売って得た力で勝っても、それは本当の『勝利』なのか？ バルガスなら、何と言う？）</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>（だが……バルガスの、あの目を裏切れるのか？ 俺が本当に欲しいのは、力か？ それとも……）</t>
+          <t>（……だが、友を売って得た力で勝っても、それは本当の『勝利』なのか？ バルガスなら、何と言う？）</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1472,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>introspect_battle</t>
+          <t>introspect_void</t>
         </is>
       </c>
     </row>
@@ -1519,17 +1484,17 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>intro_battle</t>
+          <t>intro_void</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>（力が欲しい。もっと強い敵と戦いたい。それは今も変わらない。）</t>
+          <t>（どうせ全ては無意味だ。友情も、裏切りも、どちらを選んでも結果は同じ……そう思っていた。）</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>（力が欲しい。もっと強い敵と戦いたい。それは今も変わらない。）</t>
+          <t>（どうせ全ては無意味だ。友情も、裏切りも、どちらを選んでも結果は同じ……そう思っていた。）</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1506,17 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>intro_battle2</t>
+          <t>intro_void2</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>（……だが、友を売って得た力で勝っても、それは本当の『勝利』なのか？ バルガスなら、何と言う？）</t>
+          <t>（だが、バルガスは俺に『意味』を教えてくれた。……それを、こんな形で終わらせていいのか？）</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>（……だが、友を売って得た力で勝っても、それは本当の『勝利』なのか？ バルガスなら、何と言う？）</t>
+          <t>（だが、バルガスは俺に『意味』を教えてくれた。……それを、こんな形で終わらせていいのか？）</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1530,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>introspect_void</t>
+          <t>introspect_pride</t>
         </is>
       </c>
     </row>
@@ -1577,17 +1542,17 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>intro_void</t>
+          <t>intro_pride</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>（どうせ全ては無意味だ。友情も、裏切りも、どちらを選んでも結果は同じ……そう思っていた。）</t>
+          <t>（俺はこのアリーナを支配すると言った。ならば、ゼクの誘惑に屈するなど言語道断だ。）</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>（どうせ全ては無意味だ。友情も、裏切りも、どちらを選んでも結果は同じ……そう思っていた。）</t>
+          <t>（俺はこのアリーナを支配すると言った。ならば、ゼクの誘惑に屈するなど言語道断だ。）</t>
         </is>
       </c>
     </row>
@@ -1599,17 +1564,17 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>intro_void2</t>
+          <t>intro_pride2</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>（だが、バルガスは俺に『意味』を教えてくれた。……それを、こんな形で終わらせていいのか？）</t>
+          <t>（……いや、待て。本当にそれだけか？ バルガスへの……あれは、感謝か？ それとも……）</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>（だが、バルガスは俺に『意味』を教えてくれた。……それを、こんな形で終わらせていいのか？）</t>
+          <t>（……いや、待て。本当にそれだけか？ バルガスへの……あれは、感謝か？ それとも……）</t>
         </is>
       </c>
     </row>
@@ -1623,196 +1588,186 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>introspect_pride</t>
+          <t>introspect_done</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>intro_pride</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>（俺はこのアリーナを支配すると言った。ならば、ゼクの誘惑に屈するなど言語道断だ。）</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>（俺はこのアリーナを支配すると言った。ならば、ゼクの誘惑に屈するなど言語道断だ。）</t>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>intro_pride2</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>（……いや、待て。本当にそれだけか？ バルガスへの……あれは、感謝か？ それとも……）</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>（……いや、待て。本当にそれだけか？ バルガスへの……あれは、感謝か？ それとも……）</t>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>introspect_done</t>
+          <t>refuse</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>c_refuse</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>断る。バルガスに返す</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>断る。バルガスに返す</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>c_sell</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>……分かった。売ろう</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>……分かった。売ろう</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>final_choice</t>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>refuse</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>final_choice</t>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>refuse</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>c_refuse</t>
+          <t>zek_ref1</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>断る。バルガスに返す</t>
+          <t>……残念です。ですが、無理強いはいたしません。あなたが『感傷』を選ばれるというのなら、それもまた一興。</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>断る。バルガスに返す</t>
+          <t>……残念です。ですが、無理強いはいたしません。あなたが『感傷』を選ばれるというのなら、それもまた一興。</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>c_sell</t>
+          <t>zek_ref2</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>……分かった。売ろう</t>
+          <t>……いつか、その選択を後悔する日が来るかもしれませんが。その時はまた、お声掛けください。私は常に、影の中におりますから。</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>……分かった。売ろう</t>
+          <t>……いつか、その選択を後悔する日が来るかもしれませんが。その時はまた、お声掛けください。私は常に、影の中におりますから。</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>refuse</t>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>narr_ref</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>（ゼクは影の中へと消えていく。）</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="D87" t="inlineStr">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>refuse_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>refuse_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>zek_ref1</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>……残念です。ですが、無理強いはいたしません。あなたが『感傷』を選ばれるというのなら、それもまた一興。</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>……残念です。ですが、無理強いはいたしません。あなたが『感傷』を選ばれるというのなら、それもまた一興。</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>zek_ref2</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>……いつか、その選択を後悔する日が来るかもしれませんが。その時はまた、お声掛けください。私は常に、影の中におりますから。</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>……いつか、その選択を後悔する日が来るかもしれませんが。その時はまた、お声掛けください。私は常に、影の中におりますから。</t>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
         </is>
       </c>
     </row>
@@ -1824,101 +1779,141 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>narr_ref</t>
+          <t>narr_ref2</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
+          <t>（あなたはロビーに戻り、バルガスにカインの魂の欠片を渡す。）</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
+          <t>（あなたはロビーに戻り、バルガスにカインの魂の欠片を渡す。）</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>refuse_balgas</t>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>refuse_balgas</t>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="D93" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>narr_ref2</t>
+          <t>balgas_ref1</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>（あなたはロビーに戻り、バルガスにカインの魂の欠片を渡す。）</t>
+          <t>……あぁ。これでようやく、あいつもこの錆びた檻から出られる。</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>（あなたはロビーに戻り、バルガスにカインの魂の欠片を渡す。）</t>
+          <t>……あぁ。これでようやく、あいつもこの錆びた檻から出られる。</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>narr_ref3</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>（彼は震える手で魂の欠片を受け取る。その目には涙。）</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>（彼は震える手で魂の欠片を受け取る。その目には涙。）</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>narr_ref4</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>（彼は魂の欠片を兜の中にそっと収める。）</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>（彼は魂の欠片を兜の中にそっと収める。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="F97" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="97">
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>balgas_ref2</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>……ありがよ。お前をただの『鉄屑』呼ばわりしたのは取り消してやる。</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>……ありがよ。お前をただの『鉄屑』呼ばわりしたのは取り消してやる。</t>
         </is>
       </c>
     </row>
@@ -1930,170 +1925,155 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>balgas_ref1</t>
+          <t>balgas_ref3</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>……あぁ。これでようやく、あいつもこの錆びた檻から出られる。</t>
+          <t>お前は……カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>……あぁ。これでようやく、あいつもこの錆びた檻から出られる。</t>
+          <t>お前は……カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>narr_ref3</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>（彼は震える手で魂の欠片を受け取る。その目には涙。）</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>（彼は震える手で魂の欠片を受け取る。その目には涙。）</t>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.kain_soul_choice,0</t>
         </is>
       </c>
     </row>
     <row r="100">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.balgas, +30)</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>narr_ref4</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>（彼は魂の欠片を兜の中にそっと収める。）</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>（彼は魂の欠片を兜の中にそっと収める。）</t>
-        </is>
-      </c>
     </row>
     <row r="101">
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>balgas_ref2</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>……ありがよ。お前をただの『鉄屑』呼ばわりしたのは取り消してやる。</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>……ありがよ。お前をただの『鉄屑』呼ばわりしたのは取り消してやる。</t>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>scene4_lily</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>balgas_ref3</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>お前は……カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>お前は……カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>sell</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.kain_soul_choice,0</t>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>zek_sell1</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.balgas, +30)</t>
-        </is>
-      </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>zek_sell2</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>scene4_lily</t>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>narr_sell1</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>（彼は懐から何かを取り出す。）</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>（彼は懐から何かを取り出す。）</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>sell</t>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>zek_sell3</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>zek_sell1</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -2105,17 +2085,17 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>zek_sell2</t>
+          <t>zek_sell4</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
+          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
+          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
         </is>
       </c>
     </row>
@@ -2127,186 +2107,201 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>narr_sell1</t>
+          <t>narr_sell2</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>（彼は懐から何かを取り出す。）</t>
+          <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>（彼は懐から何かを取り出す。）</t>
+          <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>zek_sell3</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>sell_balgas</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>zek_sell4</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>sell_balgas</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>narr_sell2</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>narr_sell3</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>sell_balgas</t>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>sell_balgas</t>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="D117" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="F118" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>narr_sell3</t>
+          <t>balgas_sell1</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
+          <t>……おい。カインの魂の欠片は見つかったか？</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
+          <t>……おい。カインの魂の欠片は見つかったか？</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>narr_sell4</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>（あなたは首を横に振る。）</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>（あなたは首を横に振る。）</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>balgas_sell2</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>……そうか。見つからなかったか。</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>……そうか。見つからなかったか。</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>narr_sell5</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
         </is>
       </c>
     </row>
@@ -2318,342 +2313,254 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>balgas_sell1</t>
+          <t>balgas_sell3</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>……おい。カインの魂の欠片は見つかったか？</t>
+          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>……おい。カインの魂の欠片は見つかったか？</t>
+          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>narr_sell4</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>（あなたは首を横に振る。）</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>（あなたは首を横に振る。）</t>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.kain_soul_choice,1</t>
         </is>
       </c>
     </row>
     <row r="124">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.zek, +20)</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>balgas_sell2</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>……そうか。見つからなかったか。</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>……そうか。見つからなかったか。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>narr_sell5</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>scene4_lily</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>balgas_sell3</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>scene4_lily</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="D127" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.kain_soul_choice,1</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="D128" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>mod_flag(chitsii.arena.rel.zek, +20)</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>scene4_lily</t>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>scene4_lily</t>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>narr_lily1</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>……ふふ、面白いこと。</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>……ふふ、面白いこと。</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>lily_2</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="F135" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>narr_lily1</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
+          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
+          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>……ふふ、面白いこと。</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>……ふふ、面白いこと。</t>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="138">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>complete_quest(06_2_zek_steal_soulgem)</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>complete_quest(06_2_zek_steal_soulgem)</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="D143" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1942,43 +1942,53 @@
     <row r="99">
       <c r="D99" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.kain_soul_choice,0</t>
+          <t>complete_quest(06_2_zek_steal_soulgem_return)</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="D100" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.balgas, +30)</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>scene4_lily</t>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>sell</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>sell</t>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>zek_sell1</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
         </is>
       </c>
     </row>
@@ -1990,395 +2000,385 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>zek_sell1</t>
+          <t>zek_sell2</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
+          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
+          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="F104" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>zek_sell2</t>
+          <t>narr_sell1</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
+          <t>（彼は懐から何かを取り出す。）</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
+          <t>（彼は懐から何かを取り出す。）</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="F105" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>narr_sell1</t>
+          <t>zek_sell3</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>（彼は懐から何かを取り出す。）</t>
+          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>（彼は懐から何かを取り出す。）</t>
+          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="F106" t="inlineStr">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="F107" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>zek_sell3</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>zek_sell4</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="F108" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>zek_sell4</t>
+          <t>narr_sell2</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
+          <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
+          <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>narr_sell2</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="D110" t="inlineStr">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>sell_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>sell_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>sell_balgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>sell_balgas</t>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>narr_sell3</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>narr_sell3</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="D115" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="D116" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="F117" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="117">
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>balgas_sell1</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>……おい。カインの魂の欠片は見つかったか？</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>……おい。カインの魂の欠片は見つかったか？</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="F118" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>balgas_sell1</t>
+          <t>narr_sell4</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>……おい。カインの魂の欠片は見つかったか？</t>
+          <t>（あなたは首を横に振る。）</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>……おい。カインの魂の欠片は見つかったか？</t>
+          <t>（あなたは首を横に振る。）</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="F119" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>narr_sell4</t>
+          <t>balgas_sell2</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>（あなたは首を横に振る。）</t>
+          <t>……そうか。見つからなかったか。</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>（あなたは首を横に振る。）</t>
+          <t>……そうか。見つからなかったか。</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="F120" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>balgas_sell2</t>
+          <t>narr_sell5</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>……そうか。見つからなかったか。</t>
+          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>……そうか。見つからなかったか。</t>
+          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="F121" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>narr_sell5</t>
+          <t>balgas_sell3</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
+          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
+          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
         </is>
       </c>
     </row>
     <row r="122">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>complete_quest(06_2_zek_steal_soulgem_sell)</t>
+        </is>
+      </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>balgas_sell3</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="D123" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.kain_soul_choice,1</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.zek, +20)</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>scene4_lily</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>scene4_lily</t>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>scene4_lily</t>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="D127" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
@@ -2390,53 +2390,73 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>narr_lily1</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="F130" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="130">
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>……ふふ、面白いこと。</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>……ふふ、面白いこと。</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="F131" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>narr_lily1</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
+          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
+          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
         </is>
       </c>
     </row>
@@ -2448,17 +2468,17 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>……ふふ、面白いこと。</t>
+          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>……ふふ、面白いこと。</t>
+          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
         </is>
       </c>
     </row>
@@ -2470,97 +2490,53 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>lily_2</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
+          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
+          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>complete_quest(06_2_zek_steal_soulgem)</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>complete_quest(06_2_zek_steal_soulgem)</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="D139" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
@@ -2117,7 +2117,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+          <t>for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create("medal")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1942,97 +1942,82 @@
     <row r="99">
       <c r="D99" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>complete_quest(06_2_zek_steal_soulgem_return)</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>chitsii.arena.player.kain_soul_choice,0</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="D100" t="inlineStr">
         <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>complete_quest(06_2_zek_steal_soulgem)</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>complete_quest(06_2_zek_steal_soulgem_return)</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>sell</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>zek_sell1</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>zek_sell2</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="F104" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>narr_sell1</t>
+          <t>zek_sell1</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>（彼は懐から何かを取り出す。）</t>
+          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>（彼は懐から何かを取り出す。）</t>
+          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
         </is>
       </c>
     </row>
@@ -2044,24 +2029,39 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>zek_sell3</t>
+          <t>zek_sell2</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
+          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
+          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>narr_sell1</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>（彼は懐から何かを取り出す。）</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>（彼は懐から何かを取り出す。）</t>
         </is>
       </c>
     </row>
@@ -2073,123 +2073,128 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
+          <t>zek_sell3</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
           <t>zek_sell4</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
+    <row r="110">
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
         <is>
           <t>narr_sell2</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="D109" t="inlineStr">
+    <row r="111">
+      <c r="D111" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create("medal")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="B110" t="inlineStr">
+    <row r="112">
+      <c r="B112" t="inlineStr">
         <is>
           <t>sell_balgas</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>sell_balgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>narr_sell3</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="D114" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>narr_sell3</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
         </is>
       </c>
     </row>
@@ -2201,51 +2206,31 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>balgas_sell1</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>……おい。カインの魂の欠片は見つかったか？</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>……おい。カインの魂の欠片は見つかったか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>narr_sell4</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>（あなたは首を横に振る。）</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>（あなたは首を横に振る。）</t>
         </is>
       </c>
     </row>
@@ -2257,17 +2242,17 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>balgas_sell2</t>
+          <t>balgas_sell1</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>……そうか。見つからなかったか。</t>
+          <t>……おい。カインの魂の欠片は見つかったか？</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>……そうか。見つからなかったか。</t>
+          <t>……おい。カインの魂の欠片は見つかったか？</t>
         </is>
       </c>
     </row>
@@ -2279,17 +2264,17 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>narr_sell5</t>
+          <t>narr_sell4</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
+          <t>（あなたは首を横に振る。）</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
+          <t>（あなたは首を横に振る。）</t>
         </is>
       </c>
     </row>
@@ -2301,242 +2286,112 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
+          <t>balgas_sell2</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>……そうか。見つからなかったか。</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>……そうか。見つからなかったか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>narr_sell5</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
           <t>balgas_sell3</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>complete_quest(06_2_zek_steal_soulgem_sell)</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>scene4_lily</t>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.kain_soul_choice,1</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="D125" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+          <t>complete_quest(06_2_zek_steal_soulgem)</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="D126" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>complete_quest(06_2_zek_steal_soulgem_sell)</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="D127" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>narr_lily1</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>（受付に戻ったプレイヤーに対し、リリィは全てを見透かしたような目でランクD『銅貨稼ぎ（Copper Earner）』の刻印を台帳に打つ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>……ふふ、面白いこと。</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>……ふふ、面白いこと。</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>友情を選んでも、力を選んでも、あなたの歩む先が『闘争』であることに変わりはありません。</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>ランクDへようこそ。ここからは、ただ生き残るだけでなく、いかに効率よく『価値』を証明するかが問われます。</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>次は『銅貨』を稼ぐだけでは足りません。より多くの血と、より多くの選択を。……準備が整ったら、また声をかけてくださいね？</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>complete_quest(06_2_zek_steal_soulgem)</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="D137" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_soulgem.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,85 +491,85 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>（闘技場の熱気が冷めやらぬ、薄暗い廊下。）</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>（闘技場の熱気が冷めやらぬ、薄暗い廊下。）</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>（勝利の余韻に浸るあなたの前に、鎖の音と共にゼクが現れる。）</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>（勝利の余韻に浸るあなたの前に、鎖の音と共にゼクが現れる。）</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（彼は、あなたの掌にある『カインの魂の欠片』を、まるで極上の宝石を見るような飢えた目で見つめていた。）</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>（彼は、あなたの掌にある『カインの魂の欠片』を、まるで極上の宝石を見るような飢えた目で見つめていた。）</t>
         </is>
@@ -585,146 +590,146 @@
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>zek_1</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>……あぁ、なんと美しい。</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>……あぁ、なんと美しい。</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>zek_2</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>数千回の敗北と、最期の瞬間の安らぎが凝固した、混じり気なしの『純粋な魂』だ。</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>数千回の敗北と、最期の瞬間の安らぎが凝固した、混じり気なしの『純粋な魂』だ。</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>（彼は細長い指を伸ばし、魂の欠片を指し示す。）</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>（彼は細長い指を伸ばし、魂の欠片を指し示す。）</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>zek_3</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>バルガスがそれを望んでいるのは分かっています。……ですが、闘士殿。あのおっさんにこれを返して、一体何になるのですか？</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>バルガスがそれを望んでいるのは分かっています。……ですが、闘士殿。あのおっさんにこれを返して、一体何になるのですか？</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>zek_4</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>死者に安らぎを、生者に感傷を。……そんなもの、一文の得にもなりゃしない。</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>死者に安らぎを、生者に感傷を。……そんなもの、一文の得にもなりゃしない。</t>
         </is>
@@ -736,22 +741,22 @@
           <t>react1_what</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>c1_what</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>……何が言いたい</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>……何が言いたい</t>
         </is>
@@ -763,22 +768,22 @@
           <t>react1_friend</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>c1_friend</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>友情に価値がないと？</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>友情に価値がないと？</t>
         </is>
@@ -790,22 +795,22 @@
           <t>react1_silent</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>c1_silent</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
@@ -819,22 +824,22 @@
       </c>
     </row>
     <row r="26">
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>zek_r1</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>おや、警戒心がおありで。では、単刀直入に申し上げましょう。</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>おや、警戒心がおありで。では、単刀直入に申し上げましょう。</t>
         </is>
@@ -855,22 +860,22 @@
       </c>
     </row>
     <row r="29">
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>zek_r2</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>価値がない、とは言いません。ただ、『足りない』と言っているのです。</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>価値がない、とは言いません。ただ、『足りない』と言っているのです。</t>
         </is>
@@ -891,22 +896,22 @@
       </c>
     </row>
     <row r="32">
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>zek_r3</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
         </is>
@@ -927,144 +932,144 @@
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>（ゼクはさらに一歩踏み込み、フードの下から歪んだ笑みを覗かせる。）</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>（ゼクはさらに一歩踏み込み、フードの下から歪んだ笑みを覗かせる。）</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>zek_5</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>それよりも、私にその欠片を預けてはいただけませんか？これほどの素材があれば、私はあなたの武具に『神話』の一片を刻むことができる。</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>それよりも、私にその欠片を預けてはいただけませんか？これほどの素材があれば、私はあなたの武具に『神話』の一片を刻むことができる。</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>zek_6</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>選ぶのはあなただ。バルガスに返し、友情と名誉という名の、腹の足しにもならない温もりを噛み締めるか。</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>選ぶのはあなただ。バルガスに返し、友情と名誉という名の、腹の足しにもならない温もりを噛み締めるか。</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>zek_7</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>それとも、私に売り払い、この先の地獄を生き抜くための『絶対的な暴力』を手に入れるか。</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>それとも、私に売り払い、この先の地獄を生き抜くための『絶対的な暴力』を手に入れるか。</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>zek_8</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>バルガスに返せば、彼は救われるでしょう。ですが、あなたは弱いままだ。私に売れば、あなたは英雄の力を食らって強くなる。</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>バルガスに返せば、彼は救われるでしょう。ですが、あなたは弱いままだ。私に売れば、あなたは英雄の力を食らって強くなる。</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>zek_9</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>……どちらがこのアリーナの『正解』か、賢明なあなたならお分かりでしょう？</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>……どちらがこのアリーナの『正解』か、賢明なあなたならお分かりでしょう？</t>
         </is>
@@ -1076,22 +1081,22 @@
           <t>react2_price</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>c2_price</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>代償は何だ？</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>代償は何だ？</t>
         </is>
@@ -1103,22 +1108,22 @@
           <t>react2_balgas</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>c2_balgas</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>バルガスが知ったら……</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>バルガスが知ったら……</t>
         </is>
@@ -1130,22 +1135,22 @@
           <t>react2_stare</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>c2_stare</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>（無言で魂の欠片を見つめる）</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>（無言で魂の欠片を見つめる）</t>
         </is>
@@ -1159,22 +1164,22 @@
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>zek_r4</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>代償は……あなたの『良心』を、少しばかりいただくだけです。ああ、それと友情も。</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>代償は……あなたの『良心』を、少しばかりいただくだけです。ああ、それと友情も。</t>
         </is>
@@ -1195,22 +1200,22 @@
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>zek_r5</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>ふふ、知られなければいいのですよ。それとも、正直に告白なさいますか？</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>ふふ、知られなければいいのですよ。それとも、正直に告白なさいますか？</t>
         </is>
@@ -1231,22 +1236,22 @@
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>zek_r6</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>……悩んでおられる。それが正常です。人間らしいですね。</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>……悩んでおられる。それが正常です。人間らしいですね。</t>
         </is>
@@ -1267,1131 +1272,839 @@
       </c>
     </row>
     <row r="55">
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Heartbeat");             var data = SoundManager.current.GetData("BGM/Ominous_Heartbeat");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Heartbeat");             }</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>（ゼクはあなたの返答を待つ。その目は、あなたの決断を愉しむように細められた。）</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>（ゼクはあなたの返答を待つ。その目は、あなたの決断を愉しむように細められた。）</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>（プレイヤーの脳裏に、自分の選んだ「動機」が蘇る。）</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>（プレイヤーの脳裏に、自分の選んだ「動機」が蘇る。）</t>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>introspection</t>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>introspection</t>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>refuse</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>c_refuse</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>バルガスとの絆を選ぶ</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>バルガスとの絆を選ぶ</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>sell</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>switch_flag(chitsii.arena.player.motivation, introspect_greed, introspect_battle, introspect_void, introspect_pride, introspect_done)</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>c_sell</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>力を手に入れる。売る</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>力を手に入れる。売る</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>introspect_greed</t>
+          <t>refuse</t>
         </is>
       </c>
     </row>
     <row r="62">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>zek_ref1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>……残念です。ですが、無理強いはいたしません。あなたが『感傷』を選ばれるというのなら、それもまた一興。</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>……残念です。ですが、無理強いはいたしません。あなたが『感傷』を選ばれるというのなら、それもまた一興。</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>zek_ref2</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>……いつか、その選択を後悔する日が来るかもしれませんが。その時はまた、お声掛けください。私は常に、影の中におりますから。</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>……いつか、その選択を後悔する日が来るかもしれませんが。その時はまた、お声掛けください。私は常に、影の中におりますから。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="G65" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>intro_greed</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>（……ゼクの言う通り、これを売れば圧倒的な力が手に入る。金も名声も、その先にある。）</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>（……ゼクの言う通り、これを売れば圧倒的な力が手に入る。金も名声も、その先にある。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="F63" t="inlineStr">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>narr_ref</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>（ゼクは影の中へと消えていく。）</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>（ゼクは影の中へと消えていく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>refuse_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>refuse_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="G69" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>intro_greed2</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>（だが……バルガスの、あの目を裏切れるのか？ 俺が本当に欲しいのは、力か？ それとも……）</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>（だが……バルガスの、あの目を裏切れるのか？ 俺が本当に欲しいのは、力か？ それとも……）</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>introspect_battle</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="F66" t="inlineStr">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>narr_ref2</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>（あなたはロビーに戻り、バルガスにカインの魂の欠片を渡す。）</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>（あなたはロビーに戻り、バルガスにカインの魂の欠片を渡す。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>balgas_ref1</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>……あぁ。これでようやく、あいつもこの錆びた檻から出られる。</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>……あぁ。これでようやく、あいつもこの錆びた檻から出られる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="G74" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>intro_battle</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>（力が欲しい。もっと強い敵と戦いたい。それは今も変わらない。）</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>（力が欲しい。もっと強い敵と戦いたい。それは今も変わらない。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="F67" t="inlineStr">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>narr_ref3</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>（彼は震える手で魂の欠片を受け取る。その目には涙。）</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>（彼は震える手で魂の欠片を受け取る。その目には涙。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="G75" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>intro_battle2</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>（……だが、友を売って得た力で勝っても、それは本当の『勝利』なのか？ バルガスなら、何と言う？）</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>（……だが、友を売って得た力で勝っても、それは本当の『勝利』なのか？ バルガスなら、何と言う？）</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>introspect_void</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="F70" t="inlineStr">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>narr_ref4</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>（彼は魂の欠片を兜の中にそっと収める。）</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>（彼は魂の欠片を兜の中にそっと収める。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>balgas_ref2</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>……ありがよ。お前をただの『鉄屑』呼ばわりしたのは取り消してやる。</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>……ありがよ。お前をただの『鉄屑』呼ばわりしたのは取り消してやる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>balgas_ref3</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>お前は……カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>お前は……カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.kain_soul_choice,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>complete_quest(06_2_zek_steal_soulgem)</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>intro_void</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>（どうせ全ては無意味だ。友情も、裏切りも、どちらを選んでも結果は同じ……そう思っていた。）</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>（どうせ全ては無意味だ。友情も、裏切りも、どちらを選んでも結果は同じ……そう思っていた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" t="inlineStr">
+    </row>
+    <row r="80">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>complete_quest(06_2_zek_steal_soulgem_return)</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>intro_void2</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>（だが、バルガスは俺に『意味』を教えてくれた。……それを、こんな形で終わらせていいのか？）</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>（だが、バルガスは俺に『意味』を教えてくれた。……それを、こんな形で終わらせていいのか？）</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>introspect_pride</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>intro_pride</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>（俺はこのアリーナを支配すると言った。ならば、ゼクの誘惑に屈するなど言語道断だ。）</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>（俺はこのアリーナを支配すると言った。ならば、ゼクの誘惑に屈するなど言語道断だ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>intro_pride2</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>（……いや、待て。本当にそれだけか？ バルガスへの……あれは、感謝か？ それとも……）</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>（……いや、待て。本当にそれだけか？ バルガスへの……あれは、感謝か？ それとも……）</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>introspect_done</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>final_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>final_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>refuse</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>c_refuse</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>断る。バルガスに返す</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>断る。バルガスに返す</t>
-        </is>
-      </c>
     </row>
     <row r="81">
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>c_sell</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>……分かった。売ろう</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>……分かった。売ろう</t>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>refuse</t>
+          <t>sell</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="D83" t="inlineStr">
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>zek_sell1</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>zek_sell2</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>narr_sell1</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>（彼は懐から禍々しい注射器を取り出す。）</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>（彼は懐から禍々しい注射器を取り出す。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>zek_sell3</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>さあ、約束の報酬です。私の店の秘蔵品……『禁断の覚醒剤』を差し上げましょう。</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>さあ、約束の報酬です。私の店の秘蔵品……『禁断の覚醒剤』を差し上げましょう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>zek_sell4</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>narr_sell2</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>（ゼクは影の中へと消えていく。）</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>（ゼクは影の中へと消えていく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("sukutsu_stimulant"));</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>sell_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>sell_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>zek_ref1</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>……残念です。ですが、無理強いはいたしません。あなたが『感傷』を選ばれるというのなら、それもまた一興。</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>……残念です。ですが、無理強いはいたしません。あなたが『感傷』を選ばれるというのなら、それもまた一興。</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>zek_ref2</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>……いつか、その選択を後悔する日が来るかもしれませんが。その時はまた、お声掛けください。私は常に、影の中におりますから。</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>……いつか、その選択を後悔する日が来るかもしれませんが。その時はまた、お声掛けください。私は常に、影の中におりますから。</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="F86" t="inlineStr">
+    <row r="94">
+      <c r="G94" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>narr_ref</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>refuse_balgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>refuse_balgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="F90" t="inlineStr">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>narr_sell3</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>balgas_sell1</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>……おい。カインの魂の欠片は見つかったか？</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>……おい。カインの魂の欠片は見つかったか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="G99" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>narr_ref2</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>（あなたはロビーに戻り、バルガスにカインの魂の欠片を渡す。）</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>（あなたはロビーに戻り、バルガスにカインの魂の欠片を渡す。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>narr_sell4</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>（あなたは首を横に振る。）</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>（あなたは首を横に振る。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="G100" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="F94" t="inlineStr">
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>balgas_sell2</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>……そうか。見つからなかったか。</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>……そうか。見つからなかったか。</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>narr_sell5</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="G102" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>balgas_ref1</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>……あぁ。これでようやく、あいつもこの錆びた檻から出られる。</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>……あぁ。これでようやく、あいつもこの錆びた檻から出られる。</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="F95" t="inlineStr">
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>balgas_sell3</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.kain_soul_choice,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>complete_quest(06_2_zek_steal_soulgem)</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>narr_ref3</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>（彼は震える手で魂の欠片を受け取る。その目には涙。）</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>（彼は震える手で魂の欠片を受け取る。その目には涙。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="F96" t="inlineStr">
+    </row>
+    <row r="105">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>complete_quest(06_2_zek_steal_soulgem_sell)</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>narr_ref4</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>（彼は魂の欠片を兜の中にそっと収める。）</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>（彼は魂の欠片を兜の中にそっと収める。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>balgas_ref2</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>……ありがよ。お前をただの『鉄屑』呼ばわりしたのは取り消してやる。</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>……ありがよ。お前をただの『鉄屑』呼ばわりしたのは取り消してやる。</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>balgas_ref3</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>お前は……カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>お前は……カインが持っていた以上の、本物の『鋼の心』を持った戦士だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.kain_soul_choice,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>complete_quest(06_2_zek_steal_soulgem)</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>complete_quest(06_2_zek_steal_soulgem_return)</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>zek_sell1</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>ふふ、素晴らしい！ これです、これこそが私が求めていた『合理的かつ冷酷な決断』だ！</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>zek_sell2</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>友情を燃料にして、さらなる高みへ昇る……。あなたは、本物の怪物の素質がある。</t>
-        </is>
-      </c>
     </row>
     <row r="106">
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>narr_sell1</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>（彼は懐から何かを取り出す。）</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>（彼は懐から何かを取り出す。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>zek_sell3</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>さあ、約束の報酬です。**小さなコイン15枚**と**プラチナコイン5枚**を、台帳に記録する手はずを整えておきましょう。それと、この『暗い印』を。</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>zek_sell4</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>これで、あなたは『魂を喰らう者』となりました。……では、良い演技を。彼に気づかれないよう、お気をつけて。</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>narr_sell2</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;15; i++) { EClass.pc.Pick(ThingGen.Create("medal")); } for(int i=0; i&lt;5; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>sell_balgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>sell_balgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>narr_sell3</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>（あなたはロビーに戻る。バルガスがあなたを待っている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>balgas_sell1</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>……おい。カインの魂の欠片は見つかったか？</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>……おい。カインの魂の欠片は見つかったか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>narr_sell4</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>（あなたは首を横に振る。）</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>（あなたは首を横に振る。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>balgas_sell2</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>……そうか。見つからなかったか。</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>……そうか。見つからなかったか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>narr_sell5</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>（彼は深く息を吐き、酒瓶を手に取る。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>balgas_sell3</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>……まあ、仕方ねえ。お前は十分頑張った。……ありがよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.kain_soul_choice,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>complete_quest(06_2_zek_steal_soulgem)</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>complete_quest(06_2_zek_steal_soulgem_sell)</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="D127" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>end</t>
         </is>
